--- a/data/weapons/pistol/PyranaPrime.xlsx
+++ b/data/weapons/pistol/PyranaPrime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CJKos\Documents\GitHub\Warframe-DPS-Util-V4\data\weapons\pistol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E520C6F-A176-4557-A956-DED420A6F054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1128E-5126-4B72-8748-83CFEC2DED0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyranaPrime" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
